--- a/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>ANCTF</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,149 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E7" s="2">
         <v>44479</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44395</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44311</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44115</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44031</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43947</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18576400</v>
+      </c>
+      <c r="E8" s="3">
         <v>14219700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13578900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12237400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13157500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10655400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9709800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9687200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16604200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15316800</v>
+      </c>
+      <c r="E9" s="3">
         <v>11631500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10978900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9984200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10291800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8170000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7198800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7487900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13788300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3259600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2588200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2253200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2865700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2485400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2511000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2199300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2815900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +819,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +849,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,66 +881,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>456300</v>
+      </c>
+      <c r="E15" s="3">
         <v>325700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>314300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>344900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>418700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>305800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>289500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>307400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>406100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +958,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17548000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13281700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12534000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11476000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12322900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9635100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8650500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8917600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15735700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1028400</v>
+      </c>
+      <c r="E18" s="3">
         <v>938000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1044900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>761400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>834600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1020300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1059300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>769600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>868500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,153 +1036,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>13900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>27100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1496600</v>
+      </c>
+      <c r="E21" s="3">
         <v>1278800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1357000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1108700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1248800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1326000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1340900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1105000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1283200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E22" s="3">
         <v>69600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>71200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>70700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>91600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>68900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>70500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>73000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>947700</v>
+      </c>
+      <c r="E23" s="3">
         <v>882300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>970700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>691500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>737200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>950600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>979800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>723700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>789400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>201300</v>
+      </c>
+      <c r="E24" s="3">
         <v>187500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>206300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>127600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>129700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>193600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>202700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>145400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1226,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>746400</v>
+      </c>
+      <c r="E26" s="3">
         <v>694800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>764400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>563900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>607500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>757000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>777100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>578300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>663900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>746400</v>
+      </c>
+      <c r="E27" s="3">
         <v>694800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>764400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>563900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>607500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>757000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>777100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>576300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1322,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1354,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1386,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1418,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-27100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>746400</v>
+      </c>
+      <c r="E33" s="3">
         <v>694800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>764400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>563900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>607500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>757000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>777100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>576300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1514,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>746400</v>
+      </c>
+      <c r="E35" s="3">
         <v>694800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>764400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>563900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>607500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>757000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>777100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>576300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E38" s="2">
         <v>44479</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44395</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44311</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44115</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44031</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43947</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1599,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,269 +1613,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2531100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3360600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3443200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3015800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2719300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3489900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3269800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3641500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1815400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E42" s="3">
         <v>8400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>11000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>38600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2008200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2142700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2121400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1877300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1666800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1604100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1614400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1345400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1693900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2181800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1887300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1879900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1767600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1763600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1521700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1458100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1237400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1598200</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E45" s="3">
         <v>445200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>412500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>450200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>89200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>69600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>107000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>168000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7026800</v>
+      </c>
+      <c r="E46" s="3">
         <v>7844200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7869200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7121900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6239100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6688300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6469400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6430900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5359000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E47" s="3">
         <v>215400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>207300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>199800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>172500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>158700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>249200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>139700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>134300</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14153000</v>
+      </c>
+      <c r="E48" s="3">
         <v>14092100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13952000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13939200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13885500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13226800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13057200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12650400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12731400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6772200</v>
+      </c>
+      <c r="E49" s="3">
         <v>6699400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6630900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6663200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6713800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6219800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6154700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6056600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6134800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1931,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1963,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>655600</v>
+      </c>
+      <c r="E52" s="3">
         <v>501300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>477900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>470400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>507300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>473500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>345200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>401900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>479400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2027,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28826100</v>
+      </c>
+      <c r="E54" s="3">
         <v>29352400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29137300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28394500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27518200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26767100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26275700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25679500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24838900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2075,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2089,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3909500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4273300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4370500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3994300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3454400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3358400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3548600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2808300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3383100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>619200</v>
+      </c>
+      <c r="E58" s="3">
         <v>408800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>469300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1526700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>499700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>382200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>597800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>593600</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>422600</v>
+      </c>
+      <c r="E59" s="3">
         <v>455800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>468700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>428700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>206700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>350900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>360600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>338200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>461300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4951300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5137900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5308500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5949700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4160800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4091500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4509800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3744300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4438000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8878000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9111900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9126600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8075300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9062000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8661200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8577400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9781500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8417200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2177200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2236500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2240500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2188600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2140500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2094500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2086900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2087100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1988100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2311,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2343,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2375,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16006500</v>
+      </c>
+      <c r="E66" s="3">
         <v>16486300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16675600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16213600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15363300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14847200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15174100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15612900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14844600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2423,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2453,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2485,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2517,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2549,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12958500</v>
+      </c>
+      <c r="E72" s="3">
         <v>12803900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12415800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12017800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12059400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12028700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11329900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10611300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10180000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2613,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2645,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2677,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12819600</v>
+      </c>
+      <c r="E76" s="3">
         <v>12866100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12461700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12180900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12154900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11919900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11101600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10066600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9994300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2741,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E80" s="2">
         <v>44479</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44395</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44311</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44115</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44031</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43947</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>746400</v>
+      </c>
+      <c r="E81" s="3">
         <v>694800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>764400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>563900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>607500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>757000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>777100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>576300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +2826,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>457200</v>
+      </c>
+      <c r="E83" s="3">
         <v>326900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>315100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>346500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>420000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>306500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>290600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>308300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>407500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2888,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2920,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2952,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +2984,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3016,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>558900</v>
+      </c>
+      <c r="E89" s="3">
         <v>918600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1212600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1269700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>588400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>880800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1347700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1119100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>825300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3064,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-637400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-333700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-334500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-343800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-391700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-273900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-212800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-381800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-450500</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3126,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3158,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-651600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-432400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-321500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-219900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-718000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-257600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-190100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-374400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-294900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3206,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-90800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-75300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-76300</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-55600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-53400</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3268,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3300,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3332,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-714500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-556300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-441900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-752800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-647800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-442100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1586900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1126600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>161700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-21800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>39000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>57600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-45200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-829500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-82600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>427400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>296500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-770600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>220100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-371700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1826100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>686200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>ANCTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,161 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44675</v>
+      </c>
+      <c r="E7" s="2">
         <v>44591</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44479</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44395</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44311</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44115</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44031</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43947</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16434900</v>
+      </c>
+      <c r="E8" s="3">
         <v>18576400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14219700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13578900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12237400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13157500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10655400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9709800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9687200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16604200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13877900</v>
+      </c>
+      <c r="E9" s="3">
         <v>15316800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11631500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10978900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9984200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10291800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8170000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7198800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7487900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13788300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2557000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3259600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2588200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2253200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2865700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2485400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2511000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2199300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2815900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,8 +832,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,72 +900,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E14" s="3">
         <v>3200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>449400</v>
+      </c>
+      <c r="E15" s="3">
         <v>456300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>325700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>314300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>344900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>418700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>305800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>289500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>307400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>406100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -959,72 +984,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15767700</v>
+      </c>
+      <c r="E17" s="3">
         <v>17548000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13281700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12534000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11476000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12322900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9635100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8650500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8917600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15735700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>667200</v>
+      </c>
+      <c r="E18" s="3">
         <v>1028400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>938000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1044900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>761400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>834600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1020300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1059300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>769600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>868500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1037,168 +1069,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1136200</v>
+      </c>
+      <c r="E21" s="3">
         <v>1496600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1278800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1357000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1108700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1248800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1326000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1340900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1105000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1283200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E22" s="3">
         <v>91700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>69600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>71200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>70700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>91600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>68900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>70500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>73000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>616900</v>
+      </c>
+      <c r="E23" s="3">
         <v>947700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>882300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>970700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>691500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>737200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>950600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>979800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>723700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>789400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E24" s="3">
         <v>201300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>187500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>206300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>127600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>129700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>193600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>202700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>145400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1229,72 +1277,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>477700</v>
+      </c>
+      <c r="E26" s="3">
         <v>746400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>694800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>764400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>563900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>607500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>757000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>777100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>578300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>663900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>477700</v>
+      </c>
+      <c r="E27" s="3">
         <v>746400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>694800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>764400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>563900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>607500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>757000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>777100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>576300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,8 +1382,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1357,8 +1417,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1389,8 +1452,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1421,72 +1487,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>477700</v>
+      </c>
+      <c r="E33" s="3">
         <v>746400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>694800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>764400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>563900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>607500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>757000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>777100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>576300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1517,77 +1592,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>477700</v>
+      </c>
+      <c r="E35" s="3">
         <v>746400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>694800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>764400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>563900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>607500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>757000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>777100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>576300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44675</v>
+      </c>
+      <c r="E38" s="2">
         <v>44591</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44479</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44395</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44311</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44115</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44031</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43947</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1600,8 +1684,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1614,296 +1699,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2143900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2531100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3360600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3443200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3015800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2719300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3489900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3269800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3641500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1815400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E42" s="3">
         <v>50700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>11000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2582700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2008200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2142700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2121400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1877300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1666800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1604100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1614400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1345400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1693900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2403000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2181800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1887300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1879900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1767600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1763600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1521700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1458100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1237400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1598200</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E45" s="3">
         <v>255000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>445200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>412500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>450200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>89200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>69600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>107000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>168000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7328300</v>
+      </c>
+      <c r="E46" s="3">
         <v>7026800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7844200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7869200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7121900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6239100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6688300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6469400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6430900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5359000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E47" s="3">
         <v>218500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>215400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>207300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>199800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>172500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>158700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>249200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>139700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>134300</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14588400</v>
+      </c>
+      <c r="E48" s="3">
         <v>14153000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14092100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13952000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13939200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13885500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13226800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13057200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12650400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12731400</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6781600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6772200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6699400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6630900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6663200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6713800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6219800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6154700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6056600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6134800</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1934,8 +2047,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1966,40 +2082,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>723700</v>
+      </c>
+      <c r="E52" s="3">
         <v>655600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>501300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>477900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>470400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>507300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>473500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>345200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>401900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>479400</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2030,40 +2152,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29591600</v>
+      </c>
+      <c r="E54" s="3">
         <v>28826100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29352400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29137300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28394500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27518200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26767100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26275700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25679500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24838900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2076,8 +2204,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2090,200 +2219,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5256100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3909500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4273300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4370500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3994300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3454400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3358400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3548600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2808300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3383100</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>426800</v>
+      </c>
+      <c r="E58" s="3">
         <v>619200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>408800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>469300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1526700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>499700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>382200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>597800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>593600</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>334500</v>
+      </c>
+      <c r="E59" s="3">
         <v>422600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>455800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>468700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>428700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>206700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>350900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>360600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>338200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>461300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6017400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4951300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5137900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5308500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5949700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4160800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4091500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4509800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3744300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4438000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9013100</v>
+      </c>
+      <c r="E61" s="3">
         <v>8878000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9111900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9126600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8075300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9062000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8661200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8577400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9781500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8417200</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2123500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2177200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2236500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2240500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2188600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2140500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2094500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2086900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2087100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1988100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2314,8 +2462,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2346,8 +2497,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2378,40 +2532,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17154000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16006500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16486300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16675600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16213600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15363300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14847200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15174100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15612900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14844600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2424,8 +2584,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2456,8 +2617,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2488,8 +2652,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2520,8 +2687,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2552,40 +2722,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12521000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12958500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12803900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12415800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12017800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12059400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12028700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11329900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10611300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10180000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2616,8 +2792,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2648,8 +2827,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2680,40 +2862,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12437600</v>
+      </c>
+      <c r="E76" s="3">
         <v>12819600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12866100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12461700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12180900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12154900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11919900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11101600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10066600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9994300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2744,77 +2932,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44675</v>
+      </c>
+      <c r="E80" s="2">
         <v>44591</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44479</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44395</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44311</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44115</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44031</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43947</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>477700</v>
+      </c>
+      <c r="E81" s="3">
         <v>746400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>694800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>764400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>563900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>607500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>757000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>777100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>576300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2827,40 +3024,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>450700</v>
+      </c>
+      <c r="E83" s="3">
         <v>457200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>326900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>315100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>346500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>420000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>306500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>290600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>308300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>407500</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2891,8 +3092,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2923,8 +3127,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2955,8 +3162,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2987,8 +3197,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3019,40 +3232,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1254800</v>
+      </c>
+      <c r="E89" s="3">
         <v>558900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>918600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1212600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1269700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>588400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>880800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1347700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1119100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>825300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3065,40 +3284,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-358900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-637400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-333700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-334500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-343800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-391700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-273900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-212800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-381800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-450500</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3129,8 +3352,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3161,40 +3387,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-393900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-651600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-432400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-321500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-219900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-718000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-257600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-190100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-374400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-294900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3207,40 +3439,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-92100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-90800</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-75300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-76300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-55600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-53400</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3271,8 +3507,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3303,8 +3542,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3335,100 +3577,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1238400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-714500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-556300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-441900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-752800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-647800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-442100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1586900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1126600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>161700</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-22300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-21800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>39000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>57600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-45200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-387200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-829500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-82600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>427400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>296500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-770600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>220100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-371700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1826100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>686200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>ANCTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,173 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44759</v>
+      </c>
+      <c r="E7" s="2">
         <v>44675</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44591</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44479</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44395</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44311</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44115</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44031</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43947</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18657700</v>
+      </c>
+      <c r="E8" s="3">
         <v>16434900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18576400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14219700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13578900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12237400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13157500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10655400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9709800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9687200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16604200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15774900</v>
+      </c>
+      <c r="E9" s="3">
         <v>13877900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15316800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11631500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10978900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9984200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10291800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8170000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7198800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7487900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13788300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2882800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2557000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3259600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2588200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2600000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2253200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2865700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2485400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2511000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2199300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2815900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +845,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,78 +919,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>319200</v>
+      </c>
+      <c r="E15" s="3">
         <v>449400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>456300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>325700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>314300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>344900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>418700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>305800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>289500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>307400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>406100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -985,78 +1010,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17479200</v>
+      </c>
+      <c r="E17" s="3">
         <v>15767700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17548000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13281700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12534000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11476000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12322900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9635100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8650500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8917600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15735700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1178500</v>
+      </c>
+      <c r="E18" s="3">
         <v>667200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1028400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>938000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1044900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>761400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>834600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1020300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1059300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>769600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>868500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1070,183 +1102,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E20" s="3">
         <v>18300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1507400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1136200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1496600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1278800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1357000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1108700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1248800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1326000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1340900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1105000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1283200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E22" s="3">
         <v>68600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>91700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>69600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>71200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>70700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>91600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>68900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>73000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="E23" s="3">
         <v>616900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>947700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>882300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>970700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>691500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>737200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>950600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>979800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>723700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>789400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>244600</v>
+      </c>
+      <c r="E24" s="3">
         <v>139200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>201300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>187500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>206300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>127600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>129700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>193600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>202700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>145400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,78 +1328,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>872400</v>
+      </c>
+      <c r="E26" s="3">
         <v>477700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>746400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>694800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>764400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>563900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>607500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>757000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>777100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>578300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>663900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>872400</v>
+      </c>
+      <c r="E27" s="3">
         <v>477700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>746400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>694800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>764400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>563900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>607500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>757000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>777100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>576300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1385,8 +1442,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1420,8 +1480,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1518,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1490,78 +1556,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>872400</v>
+      </c>
+      <c r="E33" s="3">
         <v>477700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>746400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>694800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>764400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>563900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>607500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>757000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>777100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>576300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1595,83 +1670,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>872400</v>
+      </c>
+      <c r="E35" s="3">
         <v>477700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>746400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>694800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>764400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>563900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>607500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>757000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>777100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>576300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44759</v>
+      </c>
+      <c r="E38" s="2">
         <v>44675</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44591</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44479</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44395</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44311</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44115</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44031</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43947</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1685,8 +1769,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1700,323 +1785,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2195400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2143900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2531100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3360600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3443200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3015800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2719300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3489900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3269800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3641500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1815400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E42" s="3">
         <v>23100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>50700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>11000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2588200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2582700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2008200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2142700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2121400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1877300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1666800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1604100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1614400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1345400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1693900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2398300</v>
+      </c>
+      <c r="E44" s="3">
         <v>2403000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2181800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1887300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1879900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1767600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1763600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1521700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1458100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1237400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1598200</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E45" s="3">
         <v>175600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>255000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>445200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>412500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>450200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>89200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>69600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>107000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>168000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7446500</v>
+      </c>
+      <c r="E46" s="3">
         <v>7328300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7026800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7844200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7869200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7121900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6239100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6688300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6469400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6430900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5359000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>230200</v>
+      </c>
+      <c r="E47" s="3">
         <v>169600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>218500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>215400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>207300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>199800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>172500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>158700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>249200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>139700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>134300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14284900</v>
+      </c>
+      <c r="E48" s="3">
         <v>14588400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14153000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14092100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13952000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13939200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13885500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13226800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13057200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12650400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12731400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6688600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6781600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6772200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6699400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6630900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6663200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6713800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6219800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6154700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6056600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6134800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2050,8 +2163,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2085,43 +2201,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700400</v>
+      </c>
+      <c r="E52" s="3">
         <v>723700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>655600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>501300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>477900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>470400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>507300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>473500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>345200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>401900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>479400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2155,43 +2277,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29350600</v>
+      </c>
+      <c r="E54" s="3">
         <v>29591600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28826100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29352400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29137300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28394500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27518200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26767100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26275700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25679500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24838900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2205,8 +2333,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2220,218 +2349,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5035300</v>
+      </c>
+      <c r="E57" s="3">
         <v>5256100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3909500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4273300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4370500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3994300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3454400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3358400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3548600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2808300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3383100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>416200</v>
+      </c>
+      <c r="E58" s="3">
         <v>426800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>619200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>408800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>469300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1526700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>499700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>382200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>597800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>593600</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>455200</v>
+      </c>
+      <c r="E59" s="3">
         <v>334500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>422600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>455800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>468700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>428700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>206700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>350900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>360600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>338200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>461300</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5906700</v>
+      </c>
+      <c r="E60" s="3">
         <v>6017400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4951300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5137900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5308500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5949700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4160800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4091500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4509800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3744300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4438000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8882800</v>
+      </c>
+      <c r="E61" s="3">
         <v>9013100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8878000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9111900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9126600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8075300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9062000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8661200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8577400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9781500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8417200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2142800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2123500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2177200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2236500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2240500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2188600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2140500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2094500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2086900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2087100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1988100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2465,8 +2613,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2500,8 +2651,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2535,43 +2689,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16932300</v>
+      </c>
+      <c r="E66" s="3">
         <v>17154000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16006500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16486300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16675600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16213600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15363300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14847200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15174100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15612900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14844600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2585,8 +2745,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2620,8 +2781,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2655,8 +2819,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2690,8 +2857,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2725,43 +2895,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12835200</v>
+      </c>
+      <c r="E72" s="3">
         <v>12521000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12958500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12803900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12415800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12017800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12059400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12028700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11329900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10611300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10180000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2795,8 +2971,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2830,8 +3009,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2865,43 +3047,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12418300</v>
+      </c>
+      <c r="E76" s="3">
         <v>12437600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12819600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12866100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12461700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12180900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12154900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11919900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11101600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10066600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9994300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2935,83 +3123,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44759</v>
+      </c>
+      <c r="E80" s="2">
         <v>44675</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44591</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44479</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44395</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44311</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44115</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44031</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43947</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>872400</v>
+      </c>
+      <c r="E81" s="3">
         <v>477700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>746400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>694800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>764400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>563900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>607500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>757000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>777100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>576300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3025,43 +3222,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>320300</v>
+      </c>
+      <c r="E83" s="3">
         <v>450700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>457200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>326900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>315100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>346500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>420000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>306500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>290600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>308300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>407500</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3095,8 +3296,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3130,8 +3334,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3165,8 +3372,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3200,8 +3410,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3235,43 +3448,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1089300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1254800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>558900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>918600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1212600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1269700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>588400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>880800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1347700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1119100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>825300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3285,43 +3504,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-340800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-358900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-637400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-333700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-334500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-343800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-391700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-273900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-212800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-381800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-450500</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3355,8 +3578,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3390,43 +3616,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-381600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-393900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-651600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-432400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-321500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-219900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-718000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-257600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-190100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-374400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-294900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3440,43 +3672,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-92100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-90800</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-75300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-76300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-55600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-53400</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3510,8 +3746,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3545,8 +3784,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3580,109 +3822,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-634900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1238400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-714500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-556300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-441900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-752800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-647800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-442100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1586900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1126600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>161700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-22300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-21800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>39000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>57600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-45200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-387200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-829500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-82600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>427400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>296500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-770600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>220100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-371700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1826100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>686200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>ANCTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,185 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44843</v>
+      </c>
+      <c r="E7" s="2">
         <v>44759</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44675</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44591</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44479</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44395</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44311</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44115</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44031</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16879500</v>
+      </c>
+      <c r="E8" s="3">
         <v>18657700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16434900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18576400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14219700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13578900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12237400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13157500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10655400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9709800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9687200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16604200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14019300</v>
+      </c>
+      <c r="E9" s="3">
         <v>15774900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13877900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15316800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11631500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10978900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9984200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10291800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8170000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7198800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7487900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13788300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2860200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2882800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2557000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3259600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2588200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2600000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2253200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2865700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2485400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2511000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2199300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2815900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +858,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,8 +897,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,84 +938,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>353900</v>
+      </c>
+      <c r="E15" s="3">
         <v>319200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>449400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>456300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>325700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>314300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>344900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>418700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>305800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>289500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>307400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>406100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1011,84 +1036,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15785800</v>
+      </c>
+      <c r="E17" s="3">
         <v>17479200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15767700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17548000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13281700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12534000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11476000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12322900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9635100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8650500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8917600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15735700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1093700</v>
+      </c>
+      <c r="E18" s="3">
         <v>1178500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>667200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1028400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>938000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1044900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>761400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>834600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1020300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1059300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>769600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>868500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,198 +1135,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E20" s="3">
         <v>8600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1468700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1507400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1136200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1496600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1278800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1357000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1108700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1248800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1326000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1340900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1105000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1283200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E22" s="3">
         <v>70100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>68600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>91700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>69600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>71200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>70700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>91600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>68900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>73000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1037700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1117000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>616900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>947700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>882300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>970700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>691500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>737200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>950600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>979800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>723700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>789400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>227300</v>
+      </c>
+      <c r="E24" s="3">
         <v>244600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>139200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>201300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>187500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>206300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>127600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>129700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>193600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>202700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>145400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,84 +1379,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>810400</v>
+      </c>
+      <c r="E26" s="3">
         <v>872400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>477700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>746400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>694800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>764400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>563900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>607500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>757000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>777100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>578300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>663900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>810400</v>
+      </c>
+      <c r="E27" s="3">
         <v>872400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>477700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>746400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>694800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>764400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>563900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>607500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>757000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>777100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>576300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1445,8 +1502,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1483,8 +1543,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1521,8 +1584,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1559,84 +1625,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>810400</v>
+      </c>
+      <c r="E33" s="3">
         <v>872400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>477700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>746400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>694800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>764400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>563900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>607500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>757000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>777100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>576300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1673,89 +1748,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>810400</v>
+      </c>
+      <c r="E35" s="3">
         <v>872400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>477700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>746400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>694800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>764400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>563900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>607500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>757000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>777100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>576300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44843</v>
+      </c>
+      <c r="E38" s="2">
         <v>44759</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44675</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44591</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44479</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44395</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44311</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44115</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44031</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +1854,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,350 +1871,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2456300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2195400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2143900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2531100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3360600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3443200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3015800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2719300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3489900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3269800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3641500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1815400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E42" s="3">
         <v>65100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>23100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>50700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>11000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2299400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2588200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2582700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2008200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2142700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2121400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1877300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1666800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1604100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1614400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1345400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1693900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2367700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2398300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2403000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2181800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1887300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1879900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1767600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1763600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1521700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1458100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1237400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1598200</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E45" s="3">
         <v>199500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>175600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>255000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>445200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>412500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>450200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>89200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>168000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7406300</v>
+      </c>
+      <c r="E46" s="3">
         <v>7446500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7328300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7026800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7844200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7869200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7121900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6239100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6688300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6469400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6430900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5359000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>230200</v>
+        <v>361200</v>
       </c>
       <c r="E47" s="3">
-        <v>169600</v>
+        <v>484300</v>
       </c>
       <c r="F47" s="3">
-        <v>218500</v>
+        <v>442300</v>
       </c>
       <c r="G47" s="3">
-        <v>215400</v>
+        <v>220400</v>
       </c>
       <c r="H47" s="3">
-        <v>207300</v>
+        <v>217300</v>
       </c>
       <c r="I47" s="3">
-        <v>199800</v>
+        <v>217400</v>
       </c>
       <c r="J47" s="3">
+        <v>219900</v>
+      </c>
+      <c r="K47" s="3">
         <v>172500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>158700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>249200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>139700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>134300</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14110900</v>
+      </c>
+      <c r="E48" s="3">
         <v>14284900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14588400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14153000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14092100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13952000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13939200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13885500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13226800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13057200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12650400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12731400</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6807200</v>
+      </c>
+      <c r="E49" s="3">
         <v>6688600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6781600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6772200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6699400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6630900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6663200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6713800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6219800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6154700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6056600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6134800</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2166,8 +2279,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2204,46 +2320,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700400</v>
+        <v>423000</v>
       </c>
       <c r="E52" s="3">
-        <v>723700</v>
+        <v>446300</v>
       </c>
       <c r="F52" s="3">
-        <v>655600</v>
+        <v>451000</v>
       </c>
       <c r="G52" s="3">
-        <v>501300</v>
+        <v>653700</v>
       </c>
       <c r="H52" s="3">
-        <v>477900</v>
+        <v>499400</v>
       </c>
       <c r="I52" s="3">
-        <v>470400</v>
+        <v>467800</v>
       </c>
       <c r="J52" s="3">
+        <v>450300</v>
+      </c>
+      <c r="K52" s="3">
         <v>507300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>473500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>345200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>401900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>479400</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2280,46 +2402,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29108600</v>
+      </c>
+      <c r="E54" s="3">
         <v>29350600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29591600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28826100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29352400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29137300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28394500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27518200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26767100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26275700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25679500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24838900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2334,8 +2462,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2350,236 +2479,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4588200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5035300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5256100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3909500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4273300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4370500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3994300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3454400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3358400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3548600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2808300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3383100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>416100</v>
+      </c>
+      <c r="E58" s="3">
         <v>416200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>426800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>619200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>408800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>469300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1526700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>499700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>382200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>597800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>593600</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>433300</v>
+      </c>
+      <c r="E59" s="3">
         <v>455200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>334500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>422600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>455800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>468700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>428700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>206700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>350900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>360600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>338200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>461300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5437600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5906700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6017400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4951300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5137900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5308500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5949700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4160800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4091500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4509800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3744300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4438000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8720600</v>
+      </c>
+      <c r="E61" s="3">
         <v>8882800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9013100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8878000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9111900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9126600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8075300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9062000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8661200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8577400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9781500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8417200</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2156500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2142800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2123500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2177200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2236500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2240500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2188600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2140500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2094500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2086900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2087100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1988100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2616,8 +2764,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2654,8 +2805,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2692,46 +2846,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16314700</v>
+      </c>
+      <c r="E66" s="3">
         <v>16932300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17154000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16006500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16486300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16675600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16213600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15363300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14847200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15174100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15612900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14844600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2746,8 +2906,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2784,8 +2945,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2822,8 +2986,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2860,8 +3027,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2898,46 +3068,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13362700</v>
+      </c>
+      <c r="E72" s="3">
         <v>12835200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12521000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12958500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12803900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12415800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12017800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12059400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12028700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11329900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10611300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10180000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2974,8 +3150,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,8 +3191,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3050,46 +3232,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12793900</v>
+      </c>
+      <c r="E76" s="3">
         <v>12418300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12437600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12819600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12866100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12461700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12180900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12154900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11919900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11101600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10066600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9994300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3126,89 +3314,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44843</v>
+      </c>
+      <c r="E80" s="2">
         <v>44759</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44675</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44591</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44479</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44395</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44311</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44115</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44031</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>810400</v>
+      </c>
+      <c r="E81" s="3">
         <v>872400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>477700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>746400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>694800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>764400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>563900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>607500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>757000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>777100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>576300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3223,46 +3420,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>354800</v>
+      </c>
+      <c r="E83" s="3">
         <v>320300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>450700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>457200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>326900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>315100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>346500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>420000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>306500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>290600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>308300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>407500</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3299,8 +3500,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3337,8 +3541,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3375,8 +3582,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3413,8 +3623,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3451,46 +3664,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1178500</v>
+      </c>
+      <c r="E89" s="3">
         <v>1089300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1254800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>558900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>918600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1212600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1269700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>588400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>880800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1347700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1119100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>825300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3505,46 +3724,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-319200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-340800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-358900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-637400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-333700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-334500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-343800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-391700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-273900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-212800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-381800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-450500</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3581,8 +3804,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3619,46 +3845,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-331200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-381600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-393900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-651600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-432400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-321500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-219900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-718000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-257600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-190100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-374400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-294900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3673,8 +3905,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3682,37 +3915,40 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-92100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-90800</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-75300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-76300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-55600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-53400</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3749,8 +3985,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3787,8 +4026,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3825,118 +4067,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-519300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-634900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1238400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-714500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-556300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-441900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-752800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-647800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-442100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1586900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1126600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>161700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-21300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-22300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-21800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>39000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>57600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-45200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>260900</v>
+      </c>
+      <c r="E102" s="3">
         <v>51500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-387200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-829500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-82600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>427400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>296500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-770600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>220100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-371700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1826100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>686200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>ANCTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,197 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E7" s="2">
         <v>44843</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44759</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44675</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44591</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44479</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44395</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44311</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44115</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44031</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20055100</v>
+      </c>
+      <c r="E8" s="3">
         <v>16879500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18657700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16434900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18576400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14219700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13578900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12237400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13157500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10655400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9709800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9687200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16604200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16654600</v>
+      </c>
+      <c r="E9" s="3">
         <v>14019300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15774900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13877900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15316800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11631500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10978900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9984200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10291800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8170000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7198800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7487900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13788300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3400500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2860200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2882800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2557000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3259600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2588200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2253200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2865700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2485400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2511000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2199300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2815900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +871,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -900,8 +913,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,90 +957,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E14" s="3">
         <v>5300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-4300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>463200</v>
+      </c>
+      <c r="E15" s="3">
         <v>353900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>319200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>449400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>456300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>325700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>314300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>344900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>418700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>305800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>289500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>307400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>406100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1037,90 +1062,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19029000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15785800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17479200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15767700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17548000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13281700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12534000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11476000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12322900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9635100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8650500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8917600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15735700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1026100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1093700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1178500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>667200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1028400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>938000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1044900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>761400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>834600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1020300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1059300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>769600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>868500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1136,213 +1168,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E20" s="3">
         <v>20200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>18300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>13900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1519700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1468700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1507400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1136200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1496600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1278800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1357000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1108700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1248800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1326000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1340900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1105000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1283200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E22" s="3">
         <v>76200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>70100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>68600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>91700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>69600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>71200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>70700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>91600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>68900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>73000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>944100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1037700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1117000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>616900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>947700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>882300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>970700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>691500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>737200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>950600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>979800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>723700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>789400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>206700</v>
+      </c>
+      <c r="E24" s="3">
         <v>227300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>244600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>139200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>201300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>187500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>206300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>127600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>129700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>193600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>202700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>145400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,90 +1430,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>737400</v>
+      </c>
+      <c r="E26" s="3">
         <v>810400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>872400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>477700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>746400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>694800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>764400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>563900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>607500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>757000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>777100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>578300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>663900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>737400</v>
+      </c>
+      <c r="E27" s="3">
         <v>810400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>872400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>477700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>746400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>694800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>764400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>563900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>607500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>757000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>777100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>576300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1562,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1546,8 +1606,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1587,8 +1650,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1628,90 +1694,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-20200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-18300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-13900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>737400</v>
+      </c>
+      <c r="E33" s="3">
         <v>810400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>872400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>477700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>746400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>694800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>764400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>563900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>607500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>757000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>777100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>576300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1751,95 +1826,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>737400</v>
+      </c>
+      <c r="E35" s="3">
         <v>810400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>872400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>477700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>746400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>694800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>764400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>563900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>607500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>757000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>777100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>576300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E38" s="2">
         <v>44843</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44759</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44675</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44591</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44479</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44395</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44311</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44115</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44031</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1855,8 +1939,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1872,377 +1957,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1133500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2456300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2195400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2143900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2531100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3360600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3443200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3015800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2719300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3489900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3269800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3641500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1815400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E42" s="3">
         <v>58800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>65100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>23100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>50700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>11000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2202500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2299400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2588200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2582700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2008200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2142700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2121400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1877300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1666800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1604100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1614400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1345400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1693900</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2528700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2367700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2398300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2403000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2181800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1887300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1879900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1767600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1763600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1521700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1458100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1237400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1598200</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>220800</v>
+      </c>
+      <c r="E45" s="3">
         <v>224100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>199500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>175600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>255000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>445200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>412500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>450200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>89200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>69600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>107000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>168000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6124800</v>
+      </c>
+      <c r="E46" s="3">
         <v>7406300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7446500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7328300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7026800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7844200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7869200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7121900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6239100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6688300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6469400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6430900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5359000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>369100</v>
+      </c>
+      <c r="E47" s="3">
         <v>361200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>484300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>442300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>220400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>217300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>217400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>219900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>172500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>158700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>249200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>139700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>134300</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14510800</v>
+      </c>
+      <c r="E48" s="3">
         <v>14110900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14284900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14588400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14153000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14092100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13952000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13939200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13885500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13226800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13057200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12650400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12731400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6873000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6807200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6688600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6781600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6772200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6699400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6630900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6663200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6713800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6219800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6154700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6056600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6134800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2282,8 +2395,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2323,49 +2439,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E52" s="3">
         <v>423000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>446300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>451000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>653700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>499400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>467800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>450300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>507300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>473500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>345200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>401900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>479400</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2405,49 +2527,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28320700</v>
+      </c>
+      <c r="E54" s="3">
         <v>29108600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29350600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29591600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28826100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29352400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29137300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28394500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27518200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26767100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26275700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25679500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24838900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2463,8 +2591,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2480,254 +2609,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4118800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4588200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5035300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5256100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3909500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4273300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4370500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3994300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3454400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3358400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3548600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2808300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3383100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>450100</v>
+      </c>
+      <c r="E58" s="3">
         <v>416100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>416200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>426800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>619200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>408800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>469300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1526700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>499700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>382200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>597800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>593600</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>703100</v>
+      </c>
+      <c r="E59" s="3">
         <v>433300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>455200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>334500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>422600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>455800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>468700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>428700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>206700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>350900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>360600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>338200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>461300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5272000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5437600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5906700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6017400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4951300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5137900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5308500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5949700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4160800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4091500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4509800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3744300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4438000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8843700</v>
+      </c>
+      <c r="E61" s="3">
         <v>8720600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8882800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9013100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8878000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9111900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9126600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8075300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9062000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8661200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8577400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9781500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8417200</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2130600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2156500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2142800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2123500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2177200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2236500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2240500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2188600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2140500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2094500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2086900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2087100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1988100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2767,8 +2915,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2808,8 +2959,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2849,49 +3003,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16246300</v>
+      </c>
+      <c r="E66" s="3">
         <v>16314700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16932300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17154000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16006500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16486300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16675600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16213600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15363300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14847200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15174100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15612900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14844600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2907,8 +3067,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2948,8 +3109,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2989,8 +3153,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3030,8 +3197,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3071,49 +3241,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12408800</v>
+      </c>
+      <c r="E72" s="3">
         <v>13362700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12835200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12521000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12958500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12803900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12415800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12017800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12059400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12028700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11329900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10611300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10180000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3153,8 +3329,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3194,8 +3373,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3235,49 +3417,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12074400</v>
+      </c>
+      <c r="E76" s="3">
         <v>12793900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12418300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12437600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12819600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12866100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12461700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12180900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12154900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11919900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11101600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10066600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9994300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3317,95 +3505,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E80" s="2">
         <v>44843</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44759</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44675</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44591</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44479</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44395</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44311</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44115</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44031</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>737400</v>
+      </c>
+      <c r="E81" s="3">
         <v>810400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>872400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>477700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>746400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>694800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>764400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>563900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>607500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>757000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>777100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>576300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3421,49 +3618,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E83" s="3">
         <v>354800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>320300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>450700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>457200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>326900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>315100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>346500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>420000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>306500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>290600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>308300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>407500</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3503,8 +3704,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3544,8 +3748,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3585,8 +3792,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3626,8 +3836,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3667,49 +3880,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>653900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1178500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1089300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1254800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>558900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>918600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1212600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1269700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>588400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>880800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1347700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1119100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>825300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3725,49 +3944,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-545100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-319200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-340800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-358900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-637400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-333700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-334500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-343800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-391700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-273900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-212800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-381800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-450500</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3807,8 +4030,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3848,49 +4074,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-556700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-331200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-381600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-393900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-651600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-432400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-321500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-219900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-718000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-257600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-190100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-374400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-294900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3906,49 +4138,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-103900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-92100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-90800</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-75300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-76300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-55600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-53400</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3988,8 +4224,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4029,8 +4268,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4070,127 +4312,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1429600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-519300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-634900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1238400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-714500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-556300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-441900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-752800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-647800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-442100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1586900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1126600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>161700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-67100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-21300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-22300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-21800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>39000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>57600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-45200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1322800</v>
+      </c>
+      <c r="E102" s="3">
         <v>260900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>51500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-387200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-829500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-82600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>427400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>296500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-770600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>220100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-371700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1826100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>686200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANCTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>ANCTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45130</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F7" s="2">
         <v>44955</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44843</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44759</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44675</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44591</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44479</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44395</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44311</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44115</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44031</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15623200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16264400</v>
+      </c>
+      <c r="F8" s="3">
         <v>20055100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>16879500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>18657700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>16434900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>18576400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>14219700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13578900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>12237400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>13157500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10655400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9709800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9687200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>16604200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12684800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13355800</v>
+      </c>
+      <c r="F9" s="3">
         <v>16654600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>14019300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>15774900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>13877900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>15316800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11631500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10978900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9984200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10291800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8170000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7198800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7487900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>13788300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2938400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2908600</v>
+      </c>
+      <c r="F10" s="3">
         <v>3400500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2860200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2882800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2557000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3259600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2588200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2600000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2253200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2865700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2485400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2511000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2199300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2815900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,96 +992,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F14" s="3">
         <v>2700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>5300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-4300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>4400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>360500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>389600</v>
+      </c>
+      <c r="F15" s="3">
         <v>463200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>353900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>319200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>449400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>456300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>325700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>314300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>344900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>418700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>305800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>289500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>307400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>406100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14480900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15330700</v>
+      </c>
+      <c r="F17" s="3">
         <v>19029000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15785800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>17479200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>15767700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>17548000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>13281700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12534000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11476000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12322900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9635100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8650500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8917600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15735700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1142300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>933700</v>
+      </c>
+      <c r="F18" s="3">
         <v>1026100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1093700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1178500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>667200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1028400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>938000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1044900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>761400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>834600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1020300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1059300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>769600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>868500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1233,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F20" s="3">
         <v>27600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>20200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>8600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>18300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>13900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-5800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>27100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1535500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1319700</v>
+      </c>
+      <c r="F21" s="3">
         <v>1519700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1468700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1507400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1136200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1496600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1278800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1357000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1108700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1248800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1326000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1340900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1105000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1283200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="F22" s="3">
         <v>109600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>76200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>70100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>68600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>91700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>69600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>71200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>70700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>91600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>68900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>70500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>73000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1080500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>830300</v>
+      </c>
+      <c r="F23" s="3">
         <v>944100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1037700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1117000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>616900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>947700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>882300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>970700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>691500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>737200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>950600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>979800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>723700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>789400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>246400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>159600</v>
+      </c>
+      <c r="F24" s="3">
         <v>206700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>227300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>244600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>139200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>201300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>187500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>206300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>127600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>129700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>193600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>202700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>145400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>834100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>670700</v>
+      </c>
+      <c r="F26" s="3">
         <v>737400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>810400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>872400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>477700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>746400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>694800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>764400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>563900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>607500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>757000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>777100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>578300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>663900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>834100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>670700</v>
+      </c>
+      <c r="F27" s="3">
         <v>737400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>810400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>872400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>477700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>746400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>694800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>764400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>563900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>607500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>757000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>777100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>576300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-27600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-20200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-8600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-18300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-13900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>5800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-27100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>834100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>670700</v>
+      </c>
+      <c r="F33" s="3">
         <v>737400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>810400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>872400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>477700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>746400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>694800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>764400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>563900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>607500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>757000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>777100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>576300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>834100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>670700</v>
+      </c>
+      <c r="F35" s="3">
         <v>737400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>810400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>872400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>477700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>746400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>694800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>764400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>563900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>607500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>757000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>777100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>576300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45130</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F38" s="2">
         <v>44955</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44843</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44759</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44675</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44591</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44479</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44395</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44311</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44115</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44031</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,404 +2128,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1956600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>834200</v>
+      </c>
+      <c r="F41" s="3">
         <v>1133500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2456300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2195400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2143900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2531100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3360600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3443200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3015800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2719300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3489900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3269800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3641500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1815400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F42" s="3">
         <v>39300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>58800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>65100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>23100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>50700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>8400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>12200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>11000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>20100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>38600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2301200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2399000</v>
+      </c>
+      <c r="F43" s="3">
         <v>2202500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2299400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2588200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2582700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2008200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2142700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2121400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1877300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1666800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1604100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1614400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1345400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1693900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2184300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2176000</v>
+      </c>
+      <c r="F44" s="3">
         <v>2528700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2367700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2398300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2403000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2181800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1887300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1879900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1767600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1763600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1521700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1458100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1237400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1598200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>165400</v>
+      </c>
+      <c r="F45" s="3">
         <v>220800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>224100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>199500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>175600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>255000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>445200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>412500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>450200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>89200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>69600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>107000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>168000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6699800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5669600</v>
+      </c>
+      <c r="F46" s="3">
         <v>6124800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7406300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7446500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>7328300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>7026800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7844200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7869200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7121900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6239100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6688300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6469400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6430900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5359000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>450700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>356300</v>
+      </c>
+      <c r="F47" s="3">
         <v>369100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>361200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>484300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>442300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>220400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>217300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>217400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>219900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>172500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>158700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>249200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>139700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>134300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15349600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15258100</v>
+      </c>
+      <c r="F48" s="3">
         <v>14510800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14110900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>14284900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>14588400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>14153000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>14092100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13952000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13939200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13885500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>13226800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>13057200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12650400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12731400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7430500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7383700</v>
+      </c>
+      <c r="F49" s="3">
         <v>6873000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>6807200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>6688600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>6781600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6772200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6699400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6630900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6663200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>6713800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>6219800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6154700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>6056600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>6134800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>395300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>381500</v>
+      </c>
+      <c r="F52" s="3">
         <v>443000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>423000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>446300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>451000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>653700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>499400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>467800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>450300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>507300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>473500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>345200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>401900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>479400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30325900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>29049200</v>
+      </c>
+      <c r="F54" s="3">
         <v>28320700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>29108600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>29350600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>29591600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>28826100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>29352400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>29137300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>28394500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>27518200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>26767100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>26275700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>25679500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>24838900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2868,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4431200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4497900</v>
+      </c>
+      <c r="F57" s="3">
         <v>4118800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4588200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5035300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5256100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3909500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4273300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4370500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3994300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3454400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3358400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3548600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2808300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3383100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>918200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>438800</v>
+      </c>
+      <c r="F58" s="3">
         <v>450100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>416100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>416200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>426800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>619200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>408800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>469300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1526700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>499700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>382200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>600600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>597800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>593600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>311600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>228300</v>
+      </c>
+      <c r="F59" s="3">
         <v>703100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>433300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>455200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>334500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>422600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>455800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>468700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>428700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>206700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>350900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>360600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>338200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>461300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5661000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5165000</v>
+      </c>
+      <c r="F60" s="3">
         <v>5272000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5437600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5906700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6017400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4951300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5137900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5308500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5949700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4160800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4091500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4509800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3744300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4438000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9093700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9027100</v>
+      </c>
+      <c r="F61" s="3">
         <v>8843700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8720600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>8882800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>9013100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>8878000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>9111900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9126600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8075300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9062000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>8661200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>8577400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>9781500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>8417200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2289400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2292600</v>
+      </c>
+      <c r="F62" s="3">
         <v>2130600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2156500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2142800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2123500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2177200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2236500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2240500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2188600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2140500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2094500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2086900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2087100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1988100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17044100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16484700</v>
+      </c>
+      <c r="F66" s="3">
         <v>16246300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16314700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16932300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>17154000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16006500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16486300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16675600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16213600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15363300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14847200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15174100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15612900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14844600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13437500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>12934600</v>
+      </c>
+      <c r="F72" s="3">
         <v>12408800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>13362700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>12835200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>12521000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>12958500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>12803900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>12415800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>12017800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>12059400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>12028700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>11329900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>10611300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>10180000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13281800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12564500</v>
+      </c>
+      <c r="F76" s="3">
         <v>12074400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>12793900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12418300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12437600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>12819600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>12866100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12461700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12180900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12154900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11919900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11101600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10066600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9994300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45130</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F80" s="2">
         <v>44955</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44843</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44759</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44675</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44591</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44479</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44395</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44311</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44115</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44031</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43863</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>834100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>670700</v>
+      </c>
+      <c r="F81" s="3">
         <v>737400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>810400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>872400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>477700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>746400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>694800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>764400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>563900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>607500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>757000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>777100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>576300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>659900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>361500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>392400</v>
+      </c>
+      <c r="F83" s="3">
         <v>466000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>354800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>320300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>450700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>457200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>326900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>315100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>346500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>420000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>306500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>290600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>308300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>407500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1389200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1422900</v>
+      </c>
+      <c r="F89" s="3">
         <v>653900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1178500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1089300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1254800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>558900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>918600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1212600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1269700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>588400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>880800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1347700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1119100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>825300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-294600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-598700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-545100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-319200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-340800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-358900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-637400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-333700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-334500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-343800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-391700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-273900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-212800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-381800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-450500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-331500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1006100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-556700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-331200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-381600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-393900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-651600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-432400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-321500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-219900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-718000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-257600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-190100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-374400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-294900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-103900</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-92100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-90800</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-75300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-76300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-55600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-53400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-765900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1429600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-519300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-634900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1238400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-714500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-556300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-441900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-752800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-647800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-442100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1586900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1126600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>161700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F101" s="3">
         <v>9600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-67100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-21300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-9700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-22300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-12500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-21800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>6800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>39000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>57600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-45200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1122400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-299300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1322800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>260900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>51500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-387200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-829500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-82600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>427400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>296500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-770600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>220100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-371700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1826100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>686200</v>
       </c>
     </row>
